--- a/src/attributions/attributions_ig_traj_407.xlsx
+++ b/src/attributions/attributions_ig_traj_407.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GG8"/>
+  <dimension ref="A1:GG10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1007,79 +1007,79 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0.2866420395821815</v>
       </c>
       <c r="C2" t="n">
         <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>-0</v>
+        <v>0.1945578972518633</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.008460475717054293</v>
+        <v>0.0188155169902699</v>
       </c>
       <c r="F2" t="n">
-        <v>0.06036462638147105</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
         <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.08747314856536657</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-0.01739718412468305</v>
       </c>
       <c r="L2" t="n">
         <v>-0</v>
       </c>
       <c r="M2" t="n">
-        <v>-0</v>
+        <v>0.1370390370430217</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.0190435502527312</v>
+        <v>0.02222200155177658</v>
       </c>
       <c r="O2" t="n">
-        <v>0.01919922517538349</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>-0</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.007558445206872821</v>
+        <v>-0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>-0</v>
+        <v>-0.176150924410681</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>-0.00905547199555682</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.1280263289370115</v>
+        <v>-0.05561933711784186</v>
       </c>
       <c r="X2" t="n">
-        <v>0.0250140405062698</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.006571748794420241</v>
+        <v>-0</v>
       </c>
       <c r="AA2" t="n">
         <v>-0</v>
@@ -1088,187 +1088,187 @@
         <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>-0.1754812767241206</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0</v>
+        <v>0.1227773471961073</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.03359533568592323</v>
+        <v>0.01142577902149423</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.01011722653847162</v>
+        <v>-0</v>
       </c>
       <c r="AH2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0.03581736744246752</v>
+        <v>-0</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK2" t="n">
         <v>-0</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0</v>
+        <v>-0.07688540209790079</v>
       </c>
       <c r="AM2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AN2" t="n">
-        <v>0</v>
+        <v>0.06222734730848131</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.1288981392739882</v>
+        <v>0.09636371615648319</v>
       </c>
       <c r="AP2" t="n">
-        <v>-0.01374022820652152</v>
+        <v>-0</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.0326697922816534</v>
+        <v>-0</v>
       </c>
       <c r="AS2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AT2" t="n">
         <v>0</v>
       </c>
       <c r="AU2" t="n">
-        <v>0</v>
+        <v>-0.3541572153581515</v>
       </c>
       <c r="AV2" t="n">
         <v>-0</v>
       </c>
       <c r="AW2" t="n">
-        <v>0</v>
+        <v>0.1164550779151879</v>
       </c>
       <c r="AX2" t="n">
-        <v>-0.07984284087458635</v>
+        <v>-0.106256101911847</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.1086057447570743</v>
+        <v>-0</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BA2" t="n">
-        <v>-0.1410446732592833</v>
+        <v>0</v>
       </c>
       <c r="BB2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD2" t="n">
-        <v>0</v>
+        <v>-0.08613931906015006</v>
       </c>
       <c r="BE2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BF2" t="n">
-        <v>-0</v>
+        <v>0.1393912396591787</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.01529237931661077</v>
+        <v>0.07912485653417058</v>
       </c>
       <c r="BH2" t="n">
-        <v>-0.03285531539257092</v>
+        <v>0</v>
       </c>
       <c r="BI2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.01565107674821746</v>
+        <v>-0</v>
       </c>
       <c r="BK2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BM2" t="n">
-        <v>0</v>
+        <v>0.06112938263179609</v>
       </c>
       <c r="BN2" t="n">
         <v>0</v>
       </c>
       <c r="BO2" t="n">
-        <v>0</v>
+        <v>0.04958811787198927</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.08437805333134334</v>
+        <v>-0.2053891352496053</v>
       </c>
       <c r="BQ2" t="n">
-        <v>-0.02334168927185665</v>
+        <v>0</v>
       </c>
       <c r="BR2" t="n">
         <v>-0</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.006330709310161504</v>
+        <v>0</v>
       </c>
       <c r="BT2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BU2" t="n">
         <v>0</v>
       </c>
       <c r="BV2" t="n">
-        <v>-0</v>
+        <v>-0.1277921232322891</v>
       </c>
       <c r="BW2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BX2" t="n">
-        <v>0</v>
+        <v>0.04652011501666443</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.01526810617654607</v>
+        <v>-0.04505323252689231</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.03517062735497582</v>
+        <v>-0</v>
       </c>
       <c r="CA2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB2" t="n">
-        <v>-0.04551911782160007</v>
+        <v>-0</v>
       </c>
       <c r="CC2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD2" t="n">
         <v>-0</v>
       </c>
       <c r="CE2" t="n">
-        <v>-0</v>
+        <v>0.1382676905597184</v>
       </c>
       <c r="CF2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CG2" t="n">
-        <v>0</v>
+        <v>-0.06581790993074962</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.01945727161459736</v>
+        <v>0.02333586549242133</v>
       </c>
       <c r="CI2" t="n">
-        <v>-0.02762808097672504</v>
+        <v>-0</v>
       </c>
       <c r="CJ2" t="n">
         <v>0</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.05002439682945979</v>
+        <v>-0</v>
       </c>
       <c r="CL2" t="n">
         <v>0</v>
@@ -1277,52 +1277,52 @@
         <v>-0</v>
       </c>
       <c r="CN2" t="n">
-        <v>0</v>
+        <v>-0.01800263742345067</v>
       </c>
       <c r="CO2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP2" t="n">
-        <v>0</v>
+        <v>0.05564574236990986</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.04059817699260333</v>
+        <v>0.1013581495609994</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.04763560954866066</v>
+        <v>-0</v>
       </c>
       <c r="CS2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.001278786671557098</v>
+        <v>0</v>
       </c>
       <c r="CU2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CV2" t="n">
         <v>0</v>
       </c>
       <c r="CW2" t="n">
-        <v>0</v>
+        <v>0.1578140898955597</v>
       </c>
       <c r="CX2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CY2" t="n">
-        <v>-0</v>
+        <v>-0.08411589982593685</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.03065486594161877</v>
+        <v>0.01103141297951243</v>
       </c>
       <c r="DA2" t="n">
-        <v>-0.02858208975754742</v>
+        <v>0</v>
       </c>
       <c r="DB2" t="n">
         <v>-0</v>
       </c>
       <c r="DC2" t="n">
-        <v>0.04658132954164619</v>
+        <v>-0</v>
       </c>
       <c r="DD2" t="n">
         <v>-0</v>
@@ -1331,52 +1331,52 @@
         <v>-0</v>
       </c>
       <c r="DF2" t="n">
-        <v>0</v>
+        <v>0.07726956208184538</v>
       </c>
       <c r="DG2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DH2" t="n">
-        <v>0</v>
+        <v>-0.09549844448378844</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.05272600292803722</v>
+        <v>0.0664135582878146</v>
       </c>
       <c r="DJ2" t="n">
-        <v>-0.1073755634726232</v>
+        <v>0</v>
       </c>
       <c r="DK2" t="n">
         <v>0</v>
       </c>
       <c r="DL2" t="n">
-        <v>-0.001982625130751098</v>
+        <v>-0</v>
       </c>
       <c r="DM2" t="n">
         <v>0</v>
       </c>
       <c r="DN2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DO2" t="n">
-        <v>0</v>
+        <v>0.04052846839844308</v>
       </c>
       <c r="DP2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0</v>
+        <v>0.05923241428287763</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.03344567930173697</v>
+        <v>0.09901851965897598</v>
       </c>
       <c r="DS2" t="n">
-        <v>-0.02013063654318137</v>
+        <v>-0</v>
       </c>
       <c r="DT2" t="n">
         <v>0</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.07255879123817548</v>
+        <v>0</v>
       </c>
       <c r="DV2" t="n">
         <v>-0</v>
@@ -1385,25 +1385,25 @@
         <v>-0</v>
       </c>
       <c r="DX2" t="n">
-        <v>-0</v>
+        <v>-0.1963708529889682</v>
       </c>
       <c r="DY2" t="n">
         <v>-0</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0</v>
+        <v>0.09223841154068566</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.02769438068241287</v>
+        <v>0.00482827039431469</v>
       </c>
       <c r="EB2" t="n">
-        <v>-0.002631050225339299</v>
+        <v>-0</v>
       </c>
       <c r="EC2" t="n">
         <v>-0</v>
       </c>
       <c r="ED2" t="n">
-        <v>-0.03432258693319917</v>
+        <v>0</v>
       </c>
       <c r="EE2" t="n">
         <v>-0</v>
@@ -1412,52 +1412,52 @@
         <v>-0</v>
       </c>
       <c r="EG2" t="n">
-        <v>-0</v>
+        <v>0.08782184408990792</v>
       </c>
       <c r="EH2" t="n">
         <v>-0</v>
       </c>
       <c r="EI2" t="n">
-        <v>0</v>
+        <v>-0.05665384438500057</v>
       </c>
       <c r="EJ2" t="n">
-        <v>-0.0181910576465688</v>
+        <v>0.1727924622305627</v>
       </c>
       <c r="EK2" t="n">
-        <v>-0.03123454205342972</v>
+        <v>-0</v>
       </c>
       <c r="EL2" t="n">
         <v>0</v>
       </c>
       <c r="EM2" t="n">
-        <v>-0.03539677127177593</v>
+        <v>-0</v>
       </c>
       <c r="EN2" t="n">
         <v>0</v>
       </c>
       <c r="EO2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EP2" t="n">
-        <v>0</v>
+        <v>0.0775441355574803</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ER2" t="n">
-        <v>0</v>
+        <v>-0.07799904254615266</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.04776597613075292</v>
+        <v>0.007686055847937266</v>
       </c>
       <c r="ET2" t="n">
-        <v>-0.03145233826818151</v>
+        <v>0</v>
       </c>
       <c r="EU2" t="n">
         <v>0</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.02968563277263731</v>
+        <v>0</v>
       </c>
       <c r="EW2" t="n">
         <v>0</v>
@@ -1466,25 +1466,25 @@
         <v>-0</v>
       </c>
       <c r="EY2" t="n">
-        <v>-0</v>
+        <v>0.1539043569848971</v>
       </c>
       <c r="EZ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FA2" t="n">
-        <v>0</v>
+        <v>-0.07228609920746044</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.03392649662049337</v>
+        <v>0.02047261039560837</v>
       </c>
       <c r="FC2" t="n">
-        <v>-0.01940140104998707</v>
+        <v>-0</v>
       </c>
       <c r="FD2" t="n">
         <v>0</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.0521150953757592</v>
+        <v>-0</v>
       </c>
       <c r="FF2" t="n">
         <v>0</v>
@@ -1493,25 +1493,25 @@
         <v>-0</v>
       </c>
       <c r="FH2" t="n">
-        <v>-0</v>
+        <v>0.02387424880841112</v>
       </c>
       <c r="FI2" t="n">
         <v>0</v>
       </c>
       <c r="FJ2" t="n">
-        <v>-0</v>
+        <v>-0.04637578096568799</v>
       </c>
       <c r="FK2" t="n">
-        <v>-0.07026921492175552</v>
+        <v>0.07084916398079287</v>
       </c>
       <c r="FL2" t="n">
-        <v>0.02547561978299149</v>
+        <v>0</v>
       </c>
       <c r="FM2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN2" t="n">
-        <v>0.03540003291150979</v>
+        <v>-0</v>
       </c>
       <c r="FO2" t="n">
         <v>0</v>
@@ -1520,25 +1520,25 @@
         <v>-0</v>
       </c>
       <c r="FQ2" t="n">
-        <v>-0</v>
+        <v>0.02735602551869211</v>
       </c>
       <c r="FR2" t="n">
         <v>0</v>
       </c>
       <c r="FS2" t="n">
-        <v>0</v>
+        <v>-0.09799222437859922</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.1080469170255199</v>
+        <v>0.07705834545184165</v>
       </c>
       <c r="FU2" t="n">
-        <v>-0.1454640159678722</v>
+        <v>0</v>
       </c>
       <c r="FV2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW2" t="n">
-        <v>0.1007476550283308</v>
+        <v>0</v>
       </c>
       <c r="FX2" t="n">
         <v>-0</v>
@@ -1547,25 +1547,25 @@
         <v>0</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0</v>
+        <v>0.03558398777213669</v>
       </c>
       <c r="GA2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GB2" t="n">
-        <v>-0</v>
+        <v>0.03947378319382469</v>
       </c>
       <c r="GC2" t="n">
         <v>-0</v>
       </c>
       <c r="GD2" t="n">
-        <v>0.003964961207003886</v>
+        <v>0</v>
       </c>
       <c r="GE2" t="n">
         <v>0</v>
       </c>
       <c r="GF2" t="n">
-        <v>-0.003011396222043512</v>
+        <v>-0</v>
       </c>
       <c r="GG2" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -1588,7 +1588,7 @@
         <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -1603,7 +1603,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -1615,7 +1615,7 @@
         <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -1630,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -1642,7 +1642,7 @@
         <v>-0</v>
       </c>
       <c r="X3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -1669,7 +1669,7 @@
         <v>-0</v>
       </c>
       <c r="AG3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH3" t="n">
         <v>0</v>
@@ -1684,7 +1684,7 @@
         <v>0</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM3" t="n">
         <v>0</v>
@@ -1696,7 +1696,7 @@
         <v>-0</v>
       </c>
       <c r="AP3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ3" t="n">
         <v>0</v>
@@ -1711,7 +1711,7 @@
         <v>0</v>
       </c>
       <c r="AU3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV3" t="n">
         <v>0</v>
@@ -1723,7 +1723,7 @@
         <v>-0</v>
       </c>
       <c r="AY3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AZ3" t="n">
         <v>0</v>
@@ -1738,7 +1738,7 @@
         <v>0</v>
       </c>
       <c r="BD3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE3" t="n">
         <v>0</v>
@@ -1750,7 +1750,7 @@
         <v>-0</v>
       </c>
       <c r="BH3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI3" t="n">
         <v>0</v>
@@ -1765,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="BM3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN3" t="n">
         <v>0</v>
@@ -1777,7 +1777,7 @@
         <v>-0</v>
       </c>
       <c r="BQ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BR3" t="n">
         <v>0</v>
@@ -1792,7 +1792,7 @@
         <v>0</v>
       </c>
       <c r="BV3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW3" t="n">
         <v>0</v>
@@ -1804,7 +1804,7 @@
         <v>-0</v>
       </c>
       <c r="BZ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CA3" t="n">
         <v>0</v>
@@ -1819,7 +1819,7 @@
         <v>0</v>
       </c>
       <c r="CE3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF3" t="n">
         <v>0</v>
@@ -1831,7 +1831,7 @@
         <v>-0</v>
       </c>
       <c r="CI3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CJ3" t="n">
         <v>0</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="CN3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO3" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>-0</v>
       </c>
       <c r="CR3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS3" t="n">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="DF3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG3" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>-0</v>
       </c>
       <c r="DJ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK3" t="n">
         <v>0</v>
@@ -1927,7 +1927,7 @@
         <v>0</v>
       </c>
       <c r="DO3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP3" t="n">
         <v>0</v>
@@ -1939,7 +1939,7 @@
         <v>-0</v>
       </c>
       <c r="DS3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT3" t="n">
         <v>0</v>
@@ -1981,7 +1981,7 @@
         <v>0</v>
       </c>
       <c r="EG3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH3" t="n">
         <v>0</v>
@@ -1993,7 +1993,7 @@
         <v>-0</v>
       </c>
       <c r="EK3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EL3" t="n">
         <v>0</v>
@@ -2008,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="EP3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ3" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>-0</v>
       </c>
       <c r="ET3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EU3" t="n">
         <v>0</v>
@@ -2035,7 +2035,7 @@
         <v>0</v>
       </c>
       <c r="EY3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ3" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>-0</v>
       </c>
       <c r="FC3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FD3" t="n">
         <v>0</v>
@@ -2062,7 +2062,7 @@
         <v>0</v>
       </c>
       <c r="FH3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FI3" t="n">
         <v>0</v>
@@ -2074,7 +2074,7 @@
         <v>-0</v>
       </c>
       <c r="FL3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FM3" t="n">
         <v>0</v>
@@ -2089,7 +2089,7 @@
         <v>0</v>
       </c>
       <c r="FQ3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FR3" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>-0</v>
       </c>
       <c r="FU3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FV3" t="n">
         <v>0</v>
@@ -2142,157 +2142,157 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0</v>
+        <v>-0.03424270711996886</v>
       </c>
       <c r="B4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.230296515054687</v>
+        <v>0.1788847039688309</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2666690269033022</v>
+        <v>0.1077077391464403</v>
       </c>
       <c r="F4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2998092297873634</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>-0</v>
+        <v>0.01599956026901424</v>
       </c>
       <c r="K4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.2609709685099627</v>
+        <v>0.05862026987620436</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0.02903034867941534</v>
+        <v>0.005881845223133167</v>
       </c>
       <c r="O4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="R4" t="n">
-        <v>0.1929180446213964</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>-0.02028289155123418</v>
       </c>
       <c r="T4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>-0.1434154688327359</v>
+        <v>0.1516176043021802</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="W4" t="n">
-        <v>-0.02390320275370759</v>
+        <v>-0.004522907116297402</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z4" t="n">
         <v>-0</v>
       </c>
       <c r="AA4" t="n">
-        <v>-0.01530741183812333</v>
+        <v>-0</v>
       </c>
       <c r="AB4" t="n">
-        <v>-0</v>
+        <v>-0.04004468374434664</v>
       </c>
       <c r="AC4" t="n">
         <v>-0</v>
       </c>
       <c r="AD4" t="n">
-        <v>-0.05939745093723139</v>
+        <v>0.06484837682654</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AF4" t="n">
-        <v>-0.1364571143373617</v>
+        <v>0.06515944849276051</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AH4" t="n">
         <v>-0</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ4" t="n">
-        <v>-0.1413810299721975</v>
+        <v>-0</v>
       </c>
       <c r="AK4" t="n">
-        <v>-0</v>
+        <v>0.03768861687125951</v>
       </c>
       <c r="AL4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AM4" t="n">
-        <v>-0.1811711499901267</v>
+        <v>-0.05736204415839104</v>
       </c>
       <c r="AN4" t="n">
         <v>-0</v>
       </c>
       <c r="AO4" t="n">
-        <v>-0.001900439045146591</v>
+        <v>-0.09073587546919835</v>
       </c>
       <c r="AP4" t="n">
         <v>0</v>
       </c>
       <c r="AQ4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS4" t="n">
-        <v>-0.1028475841255273</v>
+        <v>0</v>
       </c>
       <c r="AT4" t="n">
-        <v>0</v>
+        <v>0.02631909787983101</v>
       </c>
       <c r="AU4" t="n">
         <v>-0</v>
       </c>
       <c r="AV4" t="n">
-        <v>-0.3522525992655726</v>
+        <v>0.3076472438123232</v>
       </c>
       <c r="AW4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AX4" t="n">
-        <v>0.2724732552826977</v>
+        <v>0.5122886958248438</v>
       </c>
       <c r="AY4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ4" t="n">
         <v>-0</v>
@@ -2301,49 +2301,49 @@
         <v>-0</v>
       </c>
       <c r="BB4" t="n">
-        <v>0.4358746431664874</v>
+        <v>-0</v>
       </c>
       <c r="BC4" t="n">
-        <v>-0</v>
+        <v>-0.1696341353561095</v>
       </c>
       <c r="BD4" t="n">
         <v>0</v>
       </c>
       <c r="BE4" t="n">
-        <v>-0.05266390705049687</v>
+        <v>-0.018021821964911</v>
       </c>
       <c r="BF4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.05771955665012578</v>
+        <v>-0.01191853710037301</v>
       </c>
       <c r="BH4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ4" t="n">
         <v>0</v>
       </c>
       <c r="BK4" t="n">
-        <v>-0.08561344245556057</v>
+        <v>0</v>
       </c>
       <c r="BL4" t="n">
-        <v>-0</v>
+        <v>-0.07159653606620256</v>
       </c>
       <c r="BM4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN4" t="n">
-        <v>0.5006182386280845</v>
+        <v>0.1906465015556028</v>
       </c>
       <c r="BO4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BP4" t="n">
-        <v>0.2974249498812063</v>
+        <v>0.1602177306124544</v>
       </c>
       <c r="BQ4" t="n">
         <v>-0</v>
@@ -2355,22 +2355,22 @@
         <v>-0</v>
       </c>
       <c r="BT4" t="n">
-        <v>0.003307026840068623</v>
+        <v>-0</v>
       </c>
       <c r="BU4" t="n">
-        <v>-0</v>
+        <v>-0.015717504938423</v>
       </c>
       <c r="BV4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW4" t="n">
-        <v>-0.1604398846204575</v>
+        <v>0.05812236687776219</v>
       </c>
       <c r="BX4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BY4" t="n">
-        <v>0.2590453855569526</v>
+        <v>0.1160936469807805</v>
       </c>
       <c r="BZ4" t="n">
         <v>-0</v>
@@ -2382,22 +2382,22 @@
         <v>-0</v>
       </c>
       <c r="CC4" t="n">
-        <v>0.2046051113289611</v>
+        <v>-0</v>
       </c>
       <c r="CD4" t="n">
-        <v>0</v>
+        <v>0.005808947708774969</v>
       </c>
       <c r="CE4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF4" t="n">
-        <v>0.1434118301632731</v>
+        <v>-0.05307883702826099</v>
       </c>
       <c r="CG4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH4" t="n">
-        <v>-0.1372033637601322</v>
+        <v>-0.06584274410494073</v>
       </c>
       <c r="CI4" t="n">
         <v>0</v>
@@ -2409,49 +2409,49 @@
         <v>-0</v>
       </c>
       <c r="CL4" t="n">
-        <v>-0.07471098386038542</v>
+        <v>-0</v>
       </c>
       <c r="CM4" t="n">
-        <v>0</v>
+        <v>-0.0002996969493519485</v>
       </c>
       <c r="CN4" t="n">
         <v>0</v>
       </c>
       <c r="CO4" t="n">
-        <v>-0.002855183802300799</v>
+        <v>0.03716113078529133</v>
       </c>
       <c r="CP4" t="n">
         <v>0</v>
       </c>
       <c r="CQ4" t="n">
-        <v>-0.1075967679398388</v>
+        <v>-0.1440520342294316</v>
       </c>
       <c r="CR4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CT4" t="n">
         <v>-0</v>
       </c>
       <c r="CU4" t="n">
-        <v>0.1212058567646176</v>
+        <v>0</v>
       </c>
       <c r="CV4" t="n">
-        <v>-0</v>
+        <v>-0.006213787287038312</v>
       </c>
       <c r="CW4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CX4" t="n">
-        <v>0.1653111044742263</v>
+        <v>-0.03175506583760332</v>
       </c>
       <c r="CY4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ4" t="n">
-        <v>-0.1859172754228199</v>
+        <v>-0.01789368622912253</v>
       </c>
       <c r="DA4" t="n">
         <v>-0</v>
@@ -2463,22 +2463,22 @@
         <v>0</v>
       </c>
       <c r="DD4" t="n">
-        <v>-0.09846961843089433</v>
+        <v>0</v>
       </c>
       <c r="DE4" t="n">
-        <v>-0</v>
+        <v>0.02386467633269128</v>
       </c>
       <c r="DF4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG4" t="n">
-        <v>0.3338025648334042</v>
+        <v>0.001829635593989386</v>
       </c>
       <c r="DH4" t="n">
         <v>-0</v>
       </c>
       <c r="DI4" t="n">
-        <v>-0.3611339985870328</v>
+        <v>-0.1224589221103038</v>
       </c>
       <c r="DJ4" t="n">
         <v>-0</v>
@@ -2487,133 +2487,133 @@
         <v>-0</v>
       </c>
       <c r="DL4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM4" t="n">
-        <v>-0.005094225366851824</v>
+        <v>-0</v>
       </c>
       <c r="DN4" t="n">
-        <v>-0</v>
+        <v>-0.1326685922629581</v>
       </c>
       <c r="DO4" t="n">
         <v>-0</v>
       </c>
       <c r="DP4" t="n">
-        <v>-0.1495704713376287</v>
+        <v>-0.03911169251558103</v>
       </c>
       <c r="DQ4" t="n">
         <v>-0</v>
       </c>
       <c r="DR4" t="n">
-        <v>-0.297027046722839</v>
+        <v>-0.03260435501357514</v>
       </c>
       <c r="DS4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DU4" t="n">
         <v>-0</v>
       </c>
       <c r="DV4" t="n">
-        <v>-0.1385948149908428</v>
+        <v>0</v>
       </c>
       <c r="DW4" t="n">
-        <v>0</v>
+        <v>-0.07047152912525283</v>
       </c>
       <c r="DX4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DY4" t="n">
-        <v>0.03826170075587416</v>
+        <v>-0.04357572313623153</v>
       </c>
       <c r="DZ4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EA4" t="n">
-        <v>-0.03168717970399409</v>
+        <v>-0.05540498689003998</v>
       </c>
       <c r="EB4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC4" t="n">
         <v>-0</v>
       </c>
       <c r="ED4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EE4" t="n">
-        <v>-0.1519469942765752</v>
+        <v>-0</v>
       </c>
       <c r="EF4" t="n">
-        <v>0</v>
+        <v>-0.05881378361771702</v>
       </c>
       <c r="EG4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH4" t="n">
-        <v>0.1921433396064322</v>
+        <v>-0.091236360716826</v>
       </c>
       <c r="EI4" t="n">
         <v>-0</v>
       </c>
       <c r="EJ4" t="n">
-        <v>0.05017697344605079</v>
+        <v>-0.02329975128622987</v>
       </c>
       <c r="EK4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EL4" t="n">
         <v>-0</v>
       </c>
       <c r="EM4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EN4" t="n">
-        <v>-0.05145548134597232</v>
+        <v>-0</v>
       </c>
       <c r="EO4" t="n">
-        <v>0</v>
+        <v>-0.07796452157512089</v>
       </c>
       <c r="EP4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ4" t="n">
-        <v>0.04808996699059725</v>
+        <v>0.02752564008650723</v>
       </c>
       <c r="ER4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ES4" t="n">
-        <v>-0.02901263256900825</v>
+        <v>-0.1536650917833085</v>
       </c>
       <c r="ET4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU4" t="n">
         <v>-0</v>
       </c>
       <c r="EV4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EW4" t="n">
-        <v>-0.01226297826338058</v>
+        <v>-0</v>
       </c>
       <c r="EX4" t="n">
-        <v>0</v>
+        <v>-0.02595985766267161</v>
       </c>
       <c r="EY4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ4" t="n">
-        <v>0.173152115554799</v>
+        <v>-0.03450461629234079</v>
       </c>
       <c r="FA4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FB4" t="n">
-        <v>-0.1016037054475343</v>
+        <v>-0.02506466535286903</v>
       </c>
       <c r="FC4" t="n">
         <v>-0</v>
@@ -2625,22 +2625,22 @@
         <v>-0</v>
       </c>
       <c r="FF4" t="n">
-        <v>-0.1188977228496789</v>
+        <v>-0</v>
       </c>
       <c r="FG4" t="n">
-        <v>-0</v>
+        <v>0.008070867032958182</v>
       </c>
       <c r="FH4" t="n">
         <v>-0</v>
       </c>
       <c r="FI4" t="n">
-        <v>-0.01226880023540689</v>
+        <v>-0.04954196388947833</v>
       </c>
       <c r="FJ4" t="n">
         <v>0</v>
       </c>
       <c r="FK4" t="n">
-        <v>-0.1287136979280661</v>
+        <v>0.0428677171947657</v>
       </c>
       <c r="FL4" t="n">
         <v>-0</v>
@@ -2649,25 +2649,25 @@
         <v>0</v>
       </c>
       <c r="FN4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FO4" t="n">
-        <v>-0.1194127967353282</v>
+        <v>0</v>
       </c>
       <c r="FP4" t="n">
-        <v>-0</v>
+        <v>0.02129121423072506</v>
       </c>
       <c r="FQ4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FR4" t="n">
-        <v>0.005192834164565623</v>
+        <v>-2.686227622133608e-05</v>
       </c>
       <c r="FS4" t="n">
         <v>0</v>
       </c>
       <c r="FT4" t="n">
-        <v>-0.007169005446894701</v>
+        <v>-0.005473736434400217</v>
       </c>
       <c r="FU4" t="n">
         <v>0</v>
@@ -2679,81 +2679,81 @@
         <v>-0</v>
       </c>
       <c r="FX4" t="n">
-        <v>-0.0005138214065949121</v>
+        <v>0</v>
       </c>
       <c r="FY4" t="n">
-        <v>0</v>
+        <v>-0.06249883070916808</v>
       </c>
       <c r="FZ4" t="n">
         <v>-0</v>
       </c>
       <c r="GA4" t="n">
-        <v>-0.07313810757292247</v>
+        <v>0.01073643937819525</v>
       </c>
       <c r="GB4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GC4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GD4" t="n">
         <v>-0</v>
       </c>
       <c r="GE4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GG4" t="n">
-        <v>-0.07470230994194303</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>0.6469892975275289</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3168667007907769</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-0</v>
+        <v>-0.2613169655013686</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5300412134254142</v>
+        <v>-0.1491257851368513</v>
       </c>
       <c r="F5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>-0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.8122430644618956</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>0.3691069686355855</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3158049384359394</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>-0.2065312767424661</v>
       </c>
       <c r="N5" t="n">
-        <v>0.4387805393458675</v>
+        <v>-0.1170638164617196</v>
       </c>
       <c r="O5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>-0</v>
@@ -2762,106 +2762,106 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>-0.634665172773425</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>0.2391970916329945</v>
       </c>
       <c r="U5" t="n">
-        <v>-0.09286613709577371</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>-0</v>
+        <v>-0.07782079283891351</v>
       </c>
       <c r="W5" t="n">
-        <v>-0.4834811389400367</v>
+        <v>0.0011637993696573</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z5" t="n">
         <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>-0.2286656471520152</v>
+        <v>0</v>
       </c>
       <c r="AB5" t="n">
         <v>0</v>
       </c>
       <c r="AC5" t="n">
-        <v>-0</v>
+        <v>0.2070709942200458</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.4064269016583261</v>
+        <v>-0</v>
       </c>
       <c r="AE5" t="n">
-        <v>-0</v>
+        <v>0.01339474841885576</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.567203777292364</v>
+        <v>-0.05028692009745169</v>
       </c>
       <c r="AG5" t="n">
         <v>0</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI5" t="n">
         <v>-0</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.3432854750871028</v>
+        <v>0</v>
       </c>
       <c r="AK5" t="n">
         <v>0</v>
       </c>
       <c r="AL5" t="n">
-        <v>-0</v>
+        <v>0.2091722976317852</v>
       </c>
       <c r="AM5" t="n">
-        <v>-0.06506970690064807</v>
+        <v>0</v>
       </c>
       <c r="AN5" t="n">
-        <v>0</v>
+        <v>-0.05837946086355724</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.3031860699279246</v>
+        <v>-0.1243200847951544</v>
       </c>
       <c r="AP5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.07576072418095925</v>
+        <v>0</v>
       </c>
       <c r="AT5" t="n">
         <v>-0</v>
       </c>
       <c r="AU5" t="n">
-        <v>-0</v>
+        <v>0.9472007598173435</v>
       </c>
       <c r="AV5" t="n">
-        <v>0.8596683632519149</v>
+        <v>0</v>
       </c>
       <c r="AW5" t="n">
-        <v>-0</v>
+        <v>-0.1654427022981404</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.4649883379865896</v>
+        <v>0.05197377577909063</v>
       </c>
       <c r="AY5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AZ5" t="n">
         <v>-0</v>
@@ -2870,22 +2870,22 @@
         <v>0</v>
       </c>
       <c r="BB5" t="n">
-        <v>-1.139205831801136</v>
+        <v>0</v>
       </c>
       <c r="BC5" t="n">
         <v>0</v>
       </c>
       <c r="BD5" t="n">
-        <v>0</v>
+        <v>0.0995675281707309</v>
       </c>
       <c r="BE5" t="n">
-        <v>0.206837378315595</v>
+        <v>0</v>
       </c>
       <c r="BF5" t="n">
-        <v>0</v>
+        <v>-0.03622981853003734</v>
       </c>
       <c r="BG5" t="n">
-        <v>0.2647572364044449</v>
+        <v>-0.3523479990440295</v>
       </c>
       <c r="BH5" t="n">
         <v>0</v>
@@ -2894,52 +2894,52 @@
         <v>-0</v>
       </c>
       <c r="BJ5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BK5" t="n">
-        <v>0.2559165987971333</v>
+        <v>0</v>
       </c>
       <c r="BL5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM5" t="n">
-        <v>0</v>
+        <v>0.06731213114210853</v>
       </c>
       <c r="BN5" t="n">
-        <v>-0.1056217238759046</v>
+        <v>-0</v>
       </c>
       <c r="BO5" t="n">
-        <v>-0</v>
+        <v>0.2135163169278082</v>
       </c>
       <c r="BP5" t="n">
-        <v>-0.3355144919082375</v>
+        <v>0.05360722189061928</v>
       </c>
       <c r="BQ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS5" t="n">
         <v>-0</v>
       </c>
       <c r="BT5" t="n">
-        <v>0.3224115621125731</v>
+        <v>-0</v>
       </c>
       <c r="BU5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV5" t="n">
-        <v>-0</v>
+        <v>0.2907711952958063</v>
       </c>
       <c r="BW5" t="n">
-        <v>0.08518584012818321</v>
+        <v>0</v>
       </c>
       <c r="BX5" t="n">
-        <v>-0</v>
+        <v>-0.06396347646294682</v>
       </c>
       <c r="BY5" t="n">
-        <v>0.1410286540694198</v>
+        <v>-0.06095962305481919</v>
       </c>
       <c r="BZ5" t="n">
         <v>-0</v>
@@ -2951,52 +2951,52 @@
         <v>0</v>
       </c>
       <c r="CC5" t="n">
-        <v>-0.5448845363519679</v>
+        <v>0</v>
       </c>
       <c r="CD5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE5" t="n">
-        <v>-0</v>
+        <v>-0.1948368169172821</v>
       </c>
       <c r="CF5" t="n">
-        <v>-0.1002684193396845</v>
+        <v>0</v>
       </c>
       <c r="CG5" t="n">
-        <v>0</v>
+        <v>0.03116963056249061</v>
       </c>
       <c r="CH5" t="n">
-        <v>-0.2889833380837346</v>
+        <v>-0.04006576359353791</v>
       </c>
       <c r="CI5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CJ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CL5" t="n">
-        <v>0.2549091393018099</v>
+        <v>0</v>
       </c>
       <c r="CM5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN5" t="n">
-        <v>-0</v>
+        <v>0.0245418317666287</v>
       </c>
       <c r="CO5" t="n">
-        <v>-0.03063417497118224</v>
+        <v>0</v>
       </c>
       <c r="CP5" t="n">
-        <v>-0</v>
+        <v>-0.06604732167949848</v>
       </c>
       <c r="CQ5" t="n">
-        <v>-0.04566530748072758</v>
+        <v>-0.1433343095384792</v>
       </c>
       <c r="CR5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS5" t="n">
         <v>-0</v>
@@ -3005,268 +3005,268 @@
         <v>-0</v>
       </c>
       <c r="CU5" t="n">
-        <v>-0.3102677407172878</v>
+        <v>-0</v>
       </c>
       <c r="CV5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW5" t="n">
-        <v>-0</v>
+        <v>-0.1744869331382168</v>
       </c>
       <c r="CX5" t="n">
-        <v>0.01011098965662219</v>
+        <v>-0</v>
       </c>
       <c r="CY5" t="n">
-        <v>-0</v>
+        <v>0.08917009522333663</v>
       </c>
       <c r="CZ5" t="n">
-        <v>-0.183922117589362</v>
+        <v>-0.05430732993466653</v>
       </c>
       <c r="DA5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DB5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC5" t="n">
         <v>-0</v>
       </c>
       <c r="DD5" t="n">
-        <v>0.2241049690612127</v>
+        <v>-0</v>
       </c>
       <c r="DE5" t="n">
         <v>0</v>
       </c>
       <c r="DF5" t="n">
-        <v>-0</v>
+        <v>-0.07528551895011919</v>
       </c>
       <c r="DG5" t="n">
-        <v>0.04728474535792666</v>
+        <v>0</v>
       </c>
       <c r="DH5" t="n">
-        <v>0</v>
+        <v>-0.001721170038604544</v>
       </c>
       <c r="DI5" t="n">
-        <v>-0.01021600933021544</v>
+        <v>-0.000239728245558333</v>
       </c>
       <c r="DJ5" t="n">
         <v>0</v>
       </c>
       <c r="DK5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL5" t="n">
         <v>0</v>
       </c>
       <c r="DM5" t="n">
-        <v>-0.3019988842689852</v>
+        <v>0</v>
       </c>
       <c r="DN5" t="n">
         <v>-0</v>
       </c>
       <c r="DO5" t="n">
-        <v>0</v>
+        <v>-0.1335668367012667</v>
       </c>
       <c r="DP5" t="n">
-        <v>-0.1895397328205436</v>
+        <v>-0</v>
       </c>
       <c r="DQ5" t="n">
-        <v>0</v>
+        <v>-0.007203204875725853</v>
       </c>
       <c r="DR5" t="n">
-        <v>-0.04139418368274797</v>
+        <v>-0.06981862597095845</v>
       </c>
       <c r="DS5" t="n">
         <v>0</v>
       </c>
       <c r="DT5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV5" t="n">
-        <v>-0.2207147218123695</v>
+        <v>0</v>
       </c>
       <c r="DW5" t="n">
         <v>-0</v>
       </c>
       <c r="DX5" t="n">
-        <v>0</v>
+        <v>0.05366714928948946</v>
       </c>
       <c r="DY5" t="n">
-        <v>-0.05164836460664737</v>
+        <v>0</v>
       </c>
       <c r="DZ5" t="n">
-        <v>-0</v>
+        <v>-0.05207771849065018</v>
       </c>
       <c r="EA5" t="n">
-        <v>0.1071254839790205</v>
+        <v>-0.08159355332257889</v>
       </c>
       <c r="EB5" t="n">
         <v>0</v>
       </c>
       <c r="EC5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EE5" t="n">
-        <v>0.2610949504776939</v>
+        <v>-0</v>
       </c>
       <c r="EF5" t="n">
         <v>0</v>
       </c>
       <c r="EG5" t="n">
-        <v>-0</v>
+        <v>-0.04008851870708319</v>
       </c>
       <c r="EH5" t="n">
-        <v>0.05382117406508637</v>
+        <v>-0</v>
       </c>
       <c r="EI5" t="n">
-        <v>0</v>
+        <v>0.1566380619369285</v>
       </c>
       <c r="EJ5" t="n">
-        <v>-0.6944772656515598</v>
+        <v>0.002770285063370737</v>
       </c>
       <c r="EK5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EL5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM5" t="n">
         <v>-0</v>
       </c>
       <c r="EN5" t="n">
-        <v>0.3632660805478952</v>
+        <v>-0</v>
       </c>
       <c r="EO5" t="n">
         <v>0</v>
       </c>
       <c r="EP5" t="n">
-        <v>-0</v>
+        <v>-0.1515248309144965</v>
       </c>
       <c r="EQ5" t="n">
-        <v>-0.4468934396960393</v>
+        <v>-0</v>
       </c>
       <c r="ER5" t="n">
-        <v>0</v>
+        <v>-0.02736506728932692</v>
       </c>
       <c r="ES5" t="n">
-        <v>0.02053282237002761</v>
+        <v>-0.05674055705419165</v>
       </c>
       <c r="ET5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV5" t="n">
         <v>0</v>
       </c>
       <c r="EW5" t="n">
-        <v>0.4850183533869342</v>
+        <v>-0</v>
       </c>
       <c r="EX5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY5" t="n">
-        <v>-0</v>
+        <v>-0.1702306404910953</v>
       </c>
       <c r="EZ5" t="n">
-        <v>-0.02117324906415251</v>
+        <v>-0</v>
       </c>
       <c r="FA5" t="n">
-        <v>0</v>
+        <v>0.07268997977162771</v>
       </c>
       <c r="FB5" t="n">
-        <v>-0.311687499292666</v>
+        <v>-0.06189312601308809</v>
       </c>
       <c r="FC5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FD5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FF5" t="n">
-        <v>0.3317330587146576</v>
+        <v>0</v>
       </c>
       <c r="FG5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FH5" t="n">
-        <v>0</v>
+        <v>-0.03970622083663944</v>
       </c>
       <c r="FI5" t="n">
-        <v>-0.2618725182140236</v>
+        <v>-0</v>
       </c>
       <c r="FJ5" t="n">
-        <v>0</v>
+        <v>0.1458322223006174</v>
       </c>
       <c r="FK5" t="n">
-        <v>-0.1598706089850432</v>
+        <v>0.002043911946107423</v>
       </c>
       <c r="FL5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FM5" t="n">
         <v>0</v>
       </c>
       <c r="FN5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO5" t="n">
-        <v>0.2698828068267511</v>
+        <v>0</v>
       </c>
       <c r="FP5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FQ5" t="n">
-        <v>0</v>
+        <v>0.009966116483299699</v>
       </c>
       <c r="FR5" t="n">
-        <v>-0.05484329507230964</v>
+        <v>0</v>
       </c>
       <c r="FS5" t="n">
-        <v>-0</v>
+        <v>0.01705096626345516</v>
       </c>
       <c r="FT5" t="n">
-        <v>-0.001229580909355561</v>
+        <v>-0.002026015918492723</v>
       </c>
       <c r="FU5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FV5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FW5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FX5" t="n">
-        <v>-0.02474360218704534</v>
+        <v>0</v>
       </c>
       <c r="FY5" t="n">
         <v>-0</v>
       </c>
       <c r="FZ5" t="n">
-        <v>-0</v>
+        <v>-0.0474358435416098</v>
       </c>
       <c r="GA5" t="n">
-        <v>0.01022034184614696</v>
+        <v>-0</v>
       </c>
       <c r="GB5" t="n">
-        <v>-0</v>
+        <v>-0.08949344690670749</v>
       </c>
       <c r="GC5" t="n">
         <v>0</v>
       </c>
       <c r="GD5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE5" t="n">
         <v>-0</v>
@@ -3275,27 +3275,27 @@
         <v>0</v>
       </c>
       <c r="GG5" t="n">
-        <v>0.3502110026960146</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-1.28531442673198</v>
+        <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>0.05466739640906878</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5822714664179012</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>-0</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.1216490678473323</v>
+        <v>-0.04197564406358952</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>-0.02913400390991769</v>
       </c>
       <c r="G6" t="n">
         <v>-0</v>
@@ -3307,22 +3307,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>-1.022704011176861</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>0.02662921174603067</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6039412895529392</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>-0</v>
       </c>
       <c r="N6" t="n">
-        <v>0.2744010719501839</v>
+        <v>-0.03165495843168567</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>-0.01370883504416372</v>
       </c>
       <c r="P6" t="n">
         <v>-0</v>
@@ -3334,76 +3334,76 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>-0.0279508099497222</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>0.002879667753235953</v>
       </c>
       <c r="U6" t="n">
-        <v>0.2886605632518825</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0.6567674470423691</v>
+        <v>-0.01026042306252359</v>
       </c>
       <c r="X6" t="n">
-        <v>-0</v>
+        <v>0.02185716431031935</v>
       </c>
       <c r="Y6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Z6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.1394995064500767</v>
+        <v>-0</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>0.02184202434105669</v>
       </c>
       <c r="AD6" t="n">
-        <v>-0.1044204918700902</v>
+        <v>-0</v>
       </c>
       <c r="AE6" t="n">
         <v>-0</v>
       </c>
       <c r="AF6" t="n">
-        <v>-0.08440011555859306</v>
+        <v>0.01181450649233285</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>0.01035578080157751</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI6" t="n">
         <v>-0</v>
       </c>
       <c r="AJ6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK6" t="n">
-        <v>-0.4821329350341662</v>
+        <v>0</v>
       </c>
       <c r="AL6" t="n">
-        <v>-0</v>
+        <v>0.01688363862629536</v>
       </c>
       <c r="AM6" t="n">
-        <v>0.1216106440489211</v>
+        <v>0</v>
       </c>
       <c r="AN6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AO6" t="n">
-        <v>0.19484003675914</v>
+        <v>-0.01766166826188932</v>
       </c>
       <c r="AP6" t="n">
-        <v>0</v>
+        <v>-0.00745536364271354</v>
       </c>
       <c r="AQ6" t="n">
         <v>0</v>
@@ -3415,22 +3415,22 @@
         <v>0</v>
       </c>
       <c r="AT6" t="n">
-        <v>-1.055144636952877</v>
+        <v>-0</v>
       </c>
       <c r="AU6" t="n">
-        <v>-0</v>
+        <v>0.07240651733096537</v>
       </c>
       <c r="AV6" t="n">
-        <v>0.5545543436302045</v>
+        <v>0</v>
       </c>
       <c r="AW6" t="n">
         <v>0</v>
       </c>
       <c r="AX6" t="n">
-        <v>-0.08572386419314391</v>
+        <v>-0.04520311074176789</v>
       </c>
       <c r="AY6" t="n">
-        <v>-0</v>
+        <v>-0.02014869965103768</v>
       </c>
       <c r="AZ6" t="n">
         <v>0</v>
@@ -3442,133 +3442,133 @@
         <v>-0</v>
       </c>
       <c r="BC6" t="n">
-        <v>-0.5579246196824721</v>
+        <v>0</v>
       </c>
       <c r="BD6" t="n">
-        <v>0</v>
+        <v>0.03130351973825705</v>
       </c>
       <c r="BE6" t="n">
-        <v>0.3591986880944472</v>
+        <v>0</v>
       </c>
       <c r="BF6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BG6" t="n">
-        <v>-0.2756437749788981</v>
+        <v>-0.03042893935704419</v>
       </c>
       <c r="BH6" t="n">
-        <v>0</v>
+        <v>-0.02301297446176348</v>
       </c>
       <c r="BI6" t="n">
         <v>-0</v>
       </c>
       <c r="BJ6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BK6" t="n">
         <v>0</v>
       </c>
       <c r="BL6" t="n">
-        <v>0.330173852388962</v>
+        <v>-0</v>
       </c>
       <c r="BM6" t="n">
-        <v>-0</v>
+        <v>0.0389081035073159</v>
       </c>
       <c r="BN6" t="n">
-        <v>-0.1240315805017504</v>
+        <v>0</v>
       </c>
       <c r="BO6" t="n">
         <v>-0</v>
       </c>
       <c r="BP6" t="n">
-        <v>-0.5522634276917094</v>
+        <v>0.01772435713324906</v>
       </c>
       <c r="BQ6" t="n">
-        <v>0</v>
+        <v>0.007809535938641675</v>
       </c>
       <c r="BR6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BT6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BU6" t="n">
-        <v>-1.062613520550691</v>
+        <v>-0</v>
       </c>
       <c r="BV6" t="n">
-        <v>-0</v>
+        <v>0.02008174618063341</v>
       </c>
       <c r="BW6" t="n">
-        <v>0.2617193929862094</v>
+        <v>0</v>
       </c>
       <c r="BX6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BY6" t="n">
-        <v>-0.2510777182912533</v>
+        <v>-0.01593040397870063</v>
       </c>
       <c r="BZ6" t="n">
-        <v>0</v>
+        <v>0.003258582368397351</v>
       </c>
       <c r="CA6" t="n">
         <v>0</v>
       </c>
       <c r="CB6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CC6" t="n">
         <v>-0</v>
       </c>
       <c r="CD6" t="n">
-        <v>0.5716289743510045</v>
+        <v>-0</v>
       </c>
       <c r="CE6" t="n">
-        <v>-0</v>
+        <v>-0.01145453787251219</v>
       </c>
       <c r="CF6" t="n">
-        <v>-0.1931405236607031</v>
+        <v>0</v>
       </c>
       <c r="CG6" t="n">
         <v>0</v>
       </c>
       <c r="CH6" t="n">
-        <v>-0.12429585204212</v>
+        <v>0.01390470255950332</v>
       </c>
       <c r="CI6" t="n">
-        <v>-0</v>
+        <v>0.01412863011881516</v>
       </c>
       <c r="CJ6" t="n">
         <v>0</v>
       </c>
       <c r="CK6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CL6" t="n">
         <v>-0</v>
       </c>
       <c r="CM6" t="n">
-        <v>0.06250170482179206</v>
+        <v>0</v>
       </c>
       <c r="CN6" t="n">
-        <v>0</v>
+        <v>-0.003460147362307554</v>
       </c>
       <c r="CO6" t="n">
-        <v>-0.02614104511045591</v>
+        <v>0</v>
       </c>
       <c r="CP6" t="n">
         <v>-0</v>
       </c>
       <c r="CQ6" t="n">
-        <v>0.1838117162145792</v>
+        <v>-0.002372844868418098</v>
       </c>
       <c r="CR6" t="n">
-        <v>-0</v>
+        <v>-0.002373935022521611</v>
       </c>
       <c r="CS6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CT6" t="n">
         <v>0</v>
@@ -3577,22 +3577,22 @@
         <v>0</v>
       </c>
       <c r="CV6" t="n">
-        <v>0.5608479448771729</v>
+        <v>0</v>
       </c>
       <c r="CW6" t="n">
-        <v>0</v>
+        <v>-0.005683190302190417</v>
       </c>
       <c r="CX6" t="n">
-        <v>-0.2014250529106194</v>
+        <v>-0</v>
       </c>
       <c r="CY6" t="n">
         <v>-0</v>
       </c>
       <c r="CZ6" t="n">
-        <v>0.1572246800959308</v>
+        <v>0.01384914866586838</v>
       </c>
       <c r="DA6" t="n">
-        <v>0</v>
+        <v>0.01887774154823333</v>
       </c>
       <c r="DB6" t="n">
         <v>-0</v>
@@ -3604,25 +3604,25 @@
         <v>0</v>
       </c>
       <c r="DE6" t="n">
-        <v>-0.06879192016671452</v>
+        <v>0</v>
       </c>
       <c r="DF6" t="n">
-        <v>-0</v>
+        <v>0.01484432935799966</v>
       </c>
       <c r="DG6" t="n">
-        <v>0.123159285678563</v>
+        <v>-0</v>
       </c>
       <c r="DH6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI6" t="n">
-        <v>0.000577008398648482</v>
+        <v>0.007353847122105636</v>
       </c>
       <c r="DJ6" t="n">
-        <v>0</v>
+        <v>-0.001016540396985719</v>
       </c>
       <c r="DK6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DL6" t="n">
         <v>-0</v>
@@ -3631,130 +3631,130 @@
         <v>0</v>
       </c>
       <c r="DN6" t="n">
-        <v>-0.0455593180718088</v>
+        <v>-0</v>
       </c>
       <c r="DO6" t="n">
-        <v>-0</v>
+        <v>-0.01072606377743174</v>
       </c>
       <c r="DP6" t="n">
-        <v>0.1373881652985603</v>
+        <v>0</v>
       </c>
       <c r="DQ6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DR6" t="n">
-        <v>-0.03456987225120851</v>
+        <v>0.01804071116280199</v>
       </c>
       <c r="DS6" t="n">
-        <v>0</v>
+        <v>-0.01590050956677634</v>
       </c>
       <c r="DT6" t="n">
         <v>-0</v>
       </c>
       <c r="DU6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW6" t="n">
-        <v>0.08081727896707458</v>
+        <v>-0</v>
       </c>
       <c r="DX6" t="n">
-        <v>0</v>
+        <v>-0.01298606008683245</v>
       </c>
       <c r="DY6" t="n">
-        <v>0.141131042493646</v>
+        <v>0</v>
       </c>
       <c r="DZ6" t="n">
         <v>0</v>
       </c>
       <c r="EA6" t="n">
-        <v>0.228662928655806</v>
+        <v>-0.01207085996899307</v>
       </c>
       <c r="EB6" t="n">
-        <v>-0</v>
+        <v>-0.00872351472938988</v>
       </c>
       <c r="EC6" t="n">
         <v>-0</v>
       </c>
       <c r="ED6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EE6" t="n">
         <v>-0</v>
       </c>
       <c r="EF6" t="n">
-        <v>0.7240204197777204</v>
+        <v>-0</v>
       </c>
       <c r="EG6" t="n">
-        <v>-0</v>
+        <v>-0.009299584430593744</v>
       </c>
       <c r="EH6" t="n">
-        <v>-0.2590457363622524</v>
+        <v>-0</v>
       </c>
       <c r="EI6" t="n">
         <v>0</v>
       </c>
       <c r="EJ6" t="n">
-        <v>-0.1049614830387764</v>
+        <v>0.0032992700217724</v>
       </c>
       <c r="EK6" t="n">
-        <v>-0</v>
+        <v>0.01381455853213522</v>
       </c>
       <c r="EL6" t="n">
         <v>-0</v>
       </c>
       <c r="EM6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EN6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EO6" t="n">
-        <v>0.294364189359627</v>
+        <v>0</v>
       </c>
       <c r="EP6" t="n">
-        <v>-0</v>
+        <v>0.01249903305946648</v>
       </c>
       <c r="EQ6" t="n">
-        <v>0.3014478294319358</v>
+        <v>-0</v>
       </c>
       <c r="ER6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ES6" t="n">
-        <v>0.2656866082785873</v>
+        <v>0.0183613029495876</v>
       </c>
       <c r="ET6" t="n">
-        <v>0</v>
+        <v>0.01513623147616226</v>
       </c>
       <c r="EU6" t="n">
         <v>0</v>
       </c>
       <c r="EV6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW6" t="n">
         <v>-0</v>
       </c>
       <c r="EX6" t="n">
-        <v>0.5296179619508448</v>
+        <v>-0</v>
       </c>
       <c r="EY6" t="n">
-        <v>-0</v>
+        <v>-0.001842013015646086</v>
       </c>
       <c r="EZ6" t="n">
-        <v>-0.1861520951096639</v>
+        <v>-0</v>
       </c>
       <c r="FA6" t="n">
         <v>0</v>
       </c>
       <c r="FB6" t="n">
-        <v>0.08253206738987343</v>
+        <v>0.0115004210802759</v>
       </c>
       <c r="FC6" t="n">
-        <v>-0</v>
+        <v>0.01820991349123877</v>
       </c>
       <c r="FD6" t="n">
         <v>0</v>
@@ -3766,22 +3766,22 @@
         <v>-0</v>
       </c>
       <c r="FG6" t="n">
-        <v>-0.3911718614685639</v>
+        <v>0</v>
       </c>
       <c r="FH6" t="n">
-        <v>0</v>
+        <v>-0.02233208816382262</v>
       </c>
       <c r="FI6" t="n">
-        <v>-0.1849500165682029</v>
+        <v>-0</v>
       </c>
       <c r="FJ6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FK6" t="n">
-        <v>0.271652050468383</v>
+        <v>-0.02688384865528886</v>
       </c>
       <c r="FL6" t="n">
-        <v>-0</v>
+        <v>0.01319244325687779</v>
       </c>
       <c r="FM6" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>-0</v>
       </c>
       <c r="FO6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP6" t="n">
-        <v>-0.023012361320692</v>
+        <v>0</v>
       </c>
       <c r="FQ6" t="n">
-        <v>-0</v>
+        <v>0.001217214064337474</v>
       </c>
       <c r="FR6" t="n">
-        <v>-0.1496489762676958</v>
+        <v>0</v>
       </c>
       <c r="FS6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FT6" t="n">
-        <v>0.1001586173219053</v>
+        <v>0.000260091430757718</v>
       </c>
       <c r="FU6" t="n">
-        <v>-0</v>
+        <v>0.01924970764424324</v>
       </c>
       <c r="FV6" t="n">
         <v>-0</v>
@@ -3820,31 +3820,31 @@
         <v>0</v>
       </c>
       <c r="FY6" t="n">
-        <v>-0.2071984865747871</v>
+        <v>-0</v>
       </c>
       <c r="FZ6" t="n">
-        <v>-0</v>
+        <v>-0.02417490658904577</v>
       </c>
       <c r="GA6" t="n">
-        <v>0.2355599506490423</v>
+        <v>0</v>
       </c>
       <c r="GB6" t="n">
         <v>-0</v>
       </c>
       <c r="GC6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD6" t="n">
-        <v>0</v>
+        <v>-0.002723083369022944</v>
       </c>
       <c r="GE6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GF6" t="n">
         <v>0</v>
       </c>
       <c r="GG6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -3855,25 +3855,25 @@
         <v>-0</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.04882657091784683</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.03578972212234999</v>
+        <v>-0</v>
       </c>
       <c r="F7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1195981782945569</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -3882,25 +3882,25 @@
         <v>-0</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.05153638051654315</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.05038930463332834</v>
+        <v>-0</v>
       </c>
       <c r="O7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0.1216098546729333</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -3909,67 +3909,67 @@
         <v>-0</v>
       </c>
       <c r="U7" t="n">
-        <v>0.00256369196196028</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>-0.00143843509828122</v>
+        <v>-0</v>
       </c>
       <c r="X7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
       </c>
       <c r="Z7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.02268603233689916</v>
+        <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC7" t="n">
         <v>-0</v>
       </c>
       <c r="AD7" t="n">
-        <v>-0.01058132189042235</v>
+        <v>0</v>
       </c>
       <c r="AE7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AF7" t="n">
-        <v>-0.006038228413969382</v>
+        <v>-0</v>
       </c>
       <c r="AG7" t="n">
         <v>0</v>
       </c>
       <c r="AH7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AI7" t="n">
         <v>0</v>
       </c>
       <c r="AJ7" t="n">
-        <v>-0.007934197804294992</v>
+        <v>0</v>
       </c>
       <c r="AK7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM7" t="n">
-        <v>-0.01157273084280329</v>
+        <v>0</v>
       </c>
       <c r="AN7" t="n">
         <v>0</v>
       </c>
       <c r="AO7" t="n">
-        <v>-0.01754133365961741</v>
+        <v>-0</v>
       </c>
       <c r="AP7" t="n">
         <v>0</v>
@@ -3978,82 +3978,82 @@
         <v>0</v>
       </c>
       <c r="AR7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.004199071755112088</v>
+        <v>0</v>
       </c>
       <c r="AT7" t="n">
         <v>0</v>
       </c>
       <c r="AU7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV7" t="n">
-        <v>-0.07112264793705027</v>
+        <v>0</v>
       </c>
       <c r="AW7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AX7" t="n">
-        <v>-0.0178603701772826</v>
+        <v>-0</v>
       </c>
       <c r="AY7" t="n">
         <v>0</v>
       </c>
       <c r="AZ7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BB7" t="n">
-        <v>0.06093608932599104</v>
+        <v>0</v>
       </c>
       <c r="BC7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD7" t="n">
         <v>-0</v>
       </c>
       <c r="BE7" t="n">
-        <v>-0.01509545520290537</v>
+        <v>0</v>
       </c>
       <c r="BF7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BG7" t="n">
-        <v>-0.03308306339869665</v>
+        <v>-0</v>
       </c>
       <c r="BH7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BJ7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BK7" t="n">
-        <v>0.02069546658622156</v>
+        <v>0</v>
       </c>
       <c r="BL7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BM7" t="n">
         <v>-0</v>
       </c>
       <c r="BN7" t="n">
-        <v>0.01752447658983621</v>
+        <v>0</v>
       </c>
       <c r="BO7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BP7" t="n">
-        <v>0.0357131939321875</v>
+        <v>-0</v>
       </c>
       <c r="BQ7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BR7" t="n">
         <v>0</v>
@@ -4062,49 +4062,49 @@
         <v>0</v>
       </c>
       <c r="BT7" t="n">
-        <v>-0.02140035034780351</v>
+        <v>0</v>
       </c>
       <c r="BU7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BV7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW7" t="n">
-        <v>-0.01856274347275262</v>
+        <v>0</v>
       </c>
       <c r="BX7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BY7" t="n">
-        <v>-0.007542724570128371</v>
+        <v>-0</v>
       </c>
       <c r="BZ7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CA7" t="n">
         <v>0</v>
       </c>
       <c r="CB7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC7" t="n">
-        <v>0.04920654455070061</v>
+        <v>0</v>
       </c>
       <c r="CD7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF7" t="n">
-        <v>0.0167526826742799</v>
+        <v>0</v>
       </c>
       <c r="CG7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CH7" t="n">
-        <v>0.0152869997867228</v>
+        <v>-0</v>
       </c>
       <c r="CI7" t="n">
         <v>0</v>
@@ -4113,28 +4113,28 @@
         <v>0</v>
       </c>
       <c r="CK7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CL7" t="n">
-        <v>-0.01695193974037674</v>
+        <v>0</v>
       </c>
       <c r="CM7" t="n">
         <v>0</v>
       </c>
       <c r="CN7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO7" t="n">
-        <v>0.002804930426497365</v>
+        <v>0</v>
       </c>
       <c r="CP7" t="n">
         <v>0</v>
       </c>
       <c r="CQ7" t="n">
-        <v>-0.0007328375059351482</v>
+        <v>-0</v>
       </c>
       <c r="CR7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS7" t="n">
         <v>0</v>
@@ -4143,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="CU7" t="n">
-        <v>0.01903082837472349</v>
+        <v>0</v>
       </c>
       <c r="CV7" t="n">
         <v>0</v>
@@ -4152,52 +4152,52 @@
         <v>0</v>
       </c>
       <c r="CX7" t="n">
-        <v>0.01160396090471945</v>
+        <v>0</v>
       </c>
       <c r="CY7" t="n">
         <v>0</v>
       </c>
       <c r="CZ7" t="n">
-        <v>0.01113794509850233</v>
+        <v>0</v>
       </c>
       <c r="DA7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DB7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC7" t="n">
         <v>0</v>
       </c>
       <c r="DD7" t="n">
-        <v>-0.01638317783215134</v>
+        <v>0</v>
       </c>
       <c r="DE7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG7" t="n">
-        <v>0.05007516560361448</v>
+        <v>0</v>
       </c>
       <c r="DH7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DI7" t="n">
-        <v>-0.006431982111207166</v>
+        <v>-0</v>
       </c>
       <c r="DJ7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DL7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DM7" t="n">
-        <v>0.0007459787724239495</v>
+        <v>0</v>
       </c>
       <c r="DN7" t="n">
         <v>0</v>
@@ -4206,40 +4206,40 @@
         <v>-0</v>
       </c>
       <c r="DP7" t="n">
-        <v>0.01863729865439677</v>
+        <v>0</v>
       </c>
       <c r="DQ7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DR7" t="n">
-        <v>-0.007774276189871982</v>
+        <v>-0</v>
       </c>
       <c r="DS7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DU7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DV7" t="n">
-        <v>0.01569793491761219</v>
+        <v>0</v>
       </c>
       <c r="DW7" t="n">
         <v>0</v>
       </c>
       <c r="DX7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DY7" t="n">
-        <v>0.005756581146706314</v>
+        <v>0</v>
       </c>
       <c r="DZ7" t="n">
         <v>0</v>
       </c>
       <c r="EA7" t="n">
-        <v>-0.001083170943467422</v>
+        <v>0</v>
       </c>
       <c r="EB7" t="n">
         <v>0</v>
@@ -4251,49 +4251,49 @@
         <v>0</v>
       </c>
       <c r="EE7" t="n">
-        <v>-0.008309158391142248</v>
+        <v>0</v>
       </c>
       <c r="EF7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH7" t="n">
-        <v>0.01322645920788256</v>
+        <v>0</v>
       </c>
       <c r="EI7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EJ7" t="n">
-        <v>0.03429345433948654</v>
+        <v>-0</v>
       </c>
       <c r="EK7" t="n">
         <v>0</v>
       </c>
       <c r="EL7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EM7" t="n">
         <v>0</v>
       </c>
       <c r="EN7" t="n">
-        <v>0.01822947929976019</v>
+        <v>0</v>
       </c>
       <c r="EO7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ7" t="n">
-        <v>0.02667760801789621</v>
+        <v>0</v>
       </c>
       <c r="ER7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ES7" t="n">
-        <v>-0.01940296368087576</v>
+        <v>-0</v>
       </c>
       <c r="ET7" t="n">
         <v>0</v>
@@ -4302,25 +4302,25 @@
         <v>0</v>
       </c>
       <c r="EV7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW7" t="n">
-        <v>-0.03056271314579849</v>
+        <v>0</v>
       </c>
       <c r="EX7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY7" t="n">
         <v>-0</v>
       </c>
       <c r="EZ7" t="n">
-        <v>0.01378087904494479</v>
+        <v>0</v>
       </c>
       <c r="FA7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FB7" t="n">
-        <v>0.01547115084953702</v>
+        <v>-0</v>
       </c>
       <c r="FC7" t="n">
         <v>0</v>
@@ -4329,25 +4329,25 @@
         <v>0</v>
       </c>
       <c r="FE7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FF7" t="n">
-        <v>-0.02249093387630707</v>
+        <v>0</v>
       </c>
       <c r="FG7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FI7" t="n">
-        <v>0.03323393089080832</v>
+        <v>0</v>
       </c>
       <c r="FJ7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FK7" t="n">
-        <v>-0.003463930748563818</v>
+        <v>-0</v>
       </c>
       <c r="FL7" t="n">
         <v>0</v>
@@ -4356,37 +4356,37 @@
         <v>0</v>
       </c>
       <c r="FN7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FO7" t="n">
-        <v>-0.0003305783586297066</v>
+        <v>0</v>
       </c>
       <c r="FP7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FR7" t="n">
-        <v>0.01082175052045317</v>
+        <v>0</v>
       </c>
       <c r="FS7" t="n">
         <v>0</v>
       </c>
       <c r="FT7" t="n">
-        <v>-0.01489191375162514</v>
+        <v>0</v>
       </c>
       <c r="FU7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FV7" t="n">
         <v>0</v>
       </c>
       <c r="FW7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FX7" t="n">
-        <v>-0.03318722691062926</v>
+        <v>0</v>
       </c>
       <c r="FY7" t="n">
         <v>0</v>
@@ -4395,45 +4395,45 @@
         <v>0</v>
       </c>
       <c r="GA7" t="n">
-        <v>-0.01728749458828236</v>
+        <v>0</v>
       </c>
       <c r="GB7" t="n">
         <v>0</v>
       </c>
       <c r="GC7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GE7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GF7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG7" t="n">
-        <v>-0.02275944394519322</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>-0.9326095860668535</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>0.47994012660163</v>
       </c>
       <c r="E8" t="n">
-        <v>-0</v>
+        <v>0.3245907341539616</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -4442,25 +4442,25 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>-0.5632618300840739</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>0.2989042195931942</v>
       </c>
       <c r="N8" t="n">
-        <v>-0</v>
+        <v>0.3407295474354117</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -4469,22 +4469,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>-0.2004484167565346</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>0.2680215321204487</v>
       </c>
       <c r="W8" t="n">
-        <v>-0</v>
+        <v>0.2845892749633017</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -4493,28 +4493,28 @@
         <v>0</v>
       </c>
       <c r="Z8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>-0.2062739773072498</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>-0.07291688235280751</v>
       </c>
       <c r="AF8" t="n">
-        <v>-0</v>
+        <v>-0.0121274349262715</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AH8" t="n">
         <v>0</v>
@@ -4523,25 +4523,25 @@
         <v>0</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AK8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>-0.2510693725879663</v>
       </c>
       <c r="AM8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AN8" t="n">
-        <v>0</v>
+        <v>0.007028865218214825</v>
       </c>
       <c r="AO8" t="n">
-        <v>-0</v>
+        <v>0.2364984885291462</v>
       </c>
       <c r="AP8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AQ8" t="n">
         <v>0</v>
@@ -4550,25 +4550,25 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AT8" t="n">
         <v>0</v>
       </c>
       <c r="AU8" t="n">
-        <v>0</v>
+        <v>-1.065211751120239</v>
       </c>
       <c r="AV8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AW8" t="n">
-        <v>0</v>
+        <v>0.2675561239711146</v>
       </c>
       <c r="AX8" t="n">
-        <v>-0</v>
+        <v>0.1805795429629934</v>
       </c>
       <c r="AY8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ8" t="n">
         <v>0</v>
@@ -4577,22 +4577,22 @@
         <v>0</v>
       </c>
       <c r="BB8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BD8" t="n">
-        <v>0</v>
+        <v>-0.1375445590271753</v>
       </c>
       <c r="BE8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BF8" t="n">
-        <v>0</v>
+        <v>-0.02614234362155999</v>
       </c>
       <c r="BG8" t="n">
-        <v>-0</v>
+        <v>0.366114035688948</v>
       </c>
       <c r="BH8" t="n">
         <v>0</v>
@@ -4601,31 +4601,31 @@
         <v>0</v>
       </c>
       <c r="BJ8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BK8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BL8" t="n">
         <v>0</v>
       </c>
       <c r="BM8" t="n">
-        <v>0</v>
+        <v>-0.1936130025504135</v>
       </c>
       <c r="BN8" t="n">
         <v>0</v>
       </c>
       <c r="BO8" t="n">
-        <v>0</v>
+        <v>-0.2295312086737682</v>
       </c>
       <c r="BP8" t="n">
-        <v>-0</v>
+        <v>-0.1814158653850303</v>
       </c>
       <c r="BQ8" t="n">
         <v>0</v>
       </c>
       <c r="BR8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS8" t="n">
         <v>0</v>
@@ -4637,16 +4637,16 @@
         <v>0</v>
       </c>
       <c r="BV8" t="n">
-        <v>0</v>
+        <v>-0.3736020874485588</v>
       </c>
       <c r="BW8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BX8" t="n">
-        <v>0</v>
+        <v>0.1576748079664946</v>
       </c>
       <c r="BY8" t="n">
-        <v>-0</v>
+        <v>0.2697874030320582</v>
       </c>
       <c r="BZ8" t="n">
         <v>0</v>
@@ -4655,25 +4655,25 @@
         <v>0</v>
       </c>
       <c r="CB8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CC8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD8" t="n">
         <v>0</v>
       </c>
       <c r="CE8" t="n">
-        <v>0</v>
+        <v>0.2102920391231728</v>
       </c>
       <c r="CF8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CG8" t="n">
-        <v>0</v>
+        <v>-0.03834219949203629</v>
       </c>
       <c r="CH8" t="n">
-        <v>-0</v>
+        <v>-0.02009565958380019</v>
       </c>
       <c r="CI8" t="n">
         <v>0</v>
@@ -4682,28 +4682,28 @@
         <v>0</v>
       </c>
       <c r="CK8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CL8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CM8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CN8" t="n">
-        <v>0</v>
+        <v>-0.05105800423403315</v>
       </c>
       <c r="CO8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CP8" t="n">
-        <v>0</v>
+        <v>0.1336840800312032</v>
       </c>
       <c r="CQ8" t="n">
-        <v>-0</v>
+        <v>0.06125566424275346</v>
       </c>
       <c r="CR8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CS8" t="n">
         <v>0</v>
@@ -4712,28 +4712,28 @@
         <v>0</v>
       </c>
       <c r="CU8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CV8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CW8" t="n">
-        <v>0</v>
+        <v>0.1911048409217154</v>
       </c>
       <c r="CX8" t="n">
         <v>0</v>
       </c>
       <c r="CY8" t="n">
-        <v>0</v>
+        <v>-0.1257697770000861</v>
       </c>
       <c r="CZ8" t="n">
-        <v>0</v>
+        <v>0.009988547985123476</v>
       </c>
       <c r="DA8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DB8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DC8" t="n">
         <v>0</v>
@@ -4742,28 +4742,28 @@
         <v>0</v>
       </c>
       <c r="DE8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF8" t="n">
-        <v>0</v>
+        <v>-0.001220420975125926</v>
       </c>
       <c r="DG8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DH8" t="n">
-        <v>0</v>
+        <v>0.01871974921068379</v>
       </c>
       <c r="DI8" t="n">
-        <v>-0</v>
+        <v>0.001765733577125547</v>
       </c>
       <c r="DJ8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DK8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM8" t="n">
         <v>0</v>
@@ -4772,70 +4772,70 @@
         <v>0</v>
       </c>
       <c r="DO8" t="n">
-        <v>0</v>
+        <v>0.2396862395238072</v>
       </c>
       <c r="DP8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DQ8" t="n">
-        <v>0</v>
+        <v>-0.009028330901492099</v>
       </c>
       <c r="DR8" t="n">
-        <v>-0</v>
+        <v>0.04336824835496132</v>
       </c>
       <c r="DS8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DT8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU8" t="n">
         <v>0</v>
       </c>
       <c r="DV8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW8" t="n">
         <v>0</v>
       </c>
       <c r="DX8" t="n">
-        <v>0</v>
+        <v>0.07315645092427273</v>
       </c>
       <c r="DY8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DZ8" t="n">
-        <v>0</v>
+        <v>0.03776854633582032</v>
       </c>
       <c r="EA8" t="n">
-        <v>-0</v>
+        <v>0.136878740297997</v>
       </c>
       <c r="EB8" t="n">
         <v>0</v>
       </c>
       <c r="EC8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EE8" t="n">
         <v>0</v>
       </c>
       <c r="EF8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EG8" t="n">
-        <v>0</v>
+        <v>-0.01566109958660093</v>
       </c>
       <c r="EH8" t="n">
         <v>0</v>
       </c>
       <c r="EI8" t="n">
-        <v>0</v>
+        <v>-0.1536131953041196</v>
       </c>
       <c r="EJ8" t="n">
-        <v>0</v>
+        <v>-0.1076050249365564</v>
       </c>
       <c r="EK8" t="n">
         <v>0</v>
@@ -4847,22 +4847,22 @@
         <v>0</v>
       </c>
       <c r="EN8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EO8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EP8" t="n">
-        <v>0</v>
+        <v>0.09261908444334914</v>
       </c>
       <c r="EQ8" t="n">
         <v>0</v>
       </c>
       <c r="ER8" t="n">
-        <v>0</v>
+        <v>-0.01598613654895617</v>
       </c>
       <c r="ES8" t="n">
-        <v>-0</v>
+        <v>0.1154750739161463</v>
       </c>
       <c r="ET8" t="n">
         <v>0</v>
@@ -4871,7 +4871,7 @@
         <v>0</v>
       </c>
       <c r="EV8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EW8" t="n">
         <v>0</v>
@@ -4880,16 +4880,16 @@
         <v>0</v>
       </c>
       <c r="EY8" t="n">
-        <v>0</v>
+        <v>0.1433013923222067</v>
       </c>
       <c r="EZ8" t="n">
         <v>0</v>
       </c>
       <c r="FA8" t="n">
-        <v>0</v>
+        <v>-0.09768328386047073</v>
       </c>
       <c r="FB8" t="n">
-        <v>-0</v>
+        <v>-0.03028390404556062</v>
       </c>
       <c r="FC8" t="n">
         <v>0</v>
@@ -4898,52 +4898,52 @@
         <v>0</v>
       </c>
       <c r="FE8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FG8" t="n">
         <v>0</v>
       </c>
       <c r="FH8" t="n">
-        <v>0</v>
+        <v>0.06937950711264823</v>
       </c>
       <c r="FI8" t="n">
         <v>0</v>
       </c>
       <c r="FJ8" t="n">
-        <v>0</v>
+        <v>-0.2333023508892805</v>
       </c>
       <c r="FK8" t="n">
-        <v>-0</v>
+        <v>-0.04433489931717523</v>
       </c>
       <c r="FL8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FM8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FN8" t="n">
         <v>0</v>
       </c>
       <c r="FO8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FP8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FQ8" t="n">
-        <v>0</v>
+        <v>0.05622669814680393</v>
       </c>
       <c r="FR8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS8" t="n">
-        <v>0</v>
+        <v>0.01335038980521064</v>
       </c>
       <c r="FT8" t="n">
-        <v>-0</v>
+        <v>0.2281483848119918</v>
       </c>
       <c r="FU8" t="n">
         <v>0</v>
@@ -4952,7 +4952,7 @@
         <v>0</v>
       </c>
       <c r="FW8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX8" t="n">
         <v>0</v>
@@ -4961,16 +4961,16 @@
         <v>0</v>
       </c>
       <c r="FZ8" t="n">
-        <v>0</v>
+        <v>0.01397405375793199</v>
       </c>
       <c r="GA8" t="n">
         <v>0</v>
       </c>
       <c r="GB8" t="n">
-        <v>0</v>
+        <v>0.03196371879114728</v>
       </c>
       <c r="GC8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GD8" t="n">
         <v>0</v>
@@ -4979,9 +4979,1147 @@
         <v>0</v>
       </c>
       <c r="GF8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GG8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>0</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.4833198792730434</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.7135491436484558</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.0660634871058655</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>-0.4277062705514525</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.6104266452165374</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.1208425148922357</v>
+      </c>
+      <c r="O9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>-0.1705621217680103</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.06599901531561342</v>
+      </c>
+      <c r="W9" t="n">
+        <v>-0.02629756446926284</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>-0.1353929655075868</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0.08224659415777193</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>-0.008813588348748184</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>-0.1257750575820272</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0.04239132975653433</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>0.110382303920312</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>-0.4255363206787944</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>0.2953009514067182</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>0.02315703070788774</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>-0.1756158337460701</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>0.2290542428493975</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>0.1603157186123782</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BK9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM9" t="n">
+        <v>-0.0397162402412827</v>
+      </c>
+      <c r="BN9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BO9" t="n">
+        <v>0.02376266005538523</v>
+      </c>
+      <c r="BP9" t="n">
+        <v>-0.1910672462887686</v>
+      </c>
+      <c r="BQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BS9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV9" t="n">
+        <v>-0.179825793953457</v>
+      </c>
+      <c r="BW9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BX9" t="n">
+        <v>0.1173546898722072</v>
+      </c>
+      <c r="BY9" t="n">
+        <v>-0.07023752371601336</v>
+      </c>
+      <c r="BZ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CB9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CC9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CD9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CE9" t="n">
+        <v>0.08768469584134049</v>
+      </c>
+      <c r="CF9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CG9" t="n">
+        <v>-0.1372905954041265</v>
+      </c>
+      <c r="CH9" t="n">
+        <v>0.02459571922287377</v>
+      </c>
+      <c r="CI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CL9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CM9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CN9" t="n">
+        <v>0.01447221512890787</v>
+      </c>
+      <c r="CO9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP9" t="n">
+        <v>-0.03226921509020528</v>
+      </c>
+      <c r="CQ9" t="n">
+        <v>0.07355493804416789</v>
+      </c>
+      <c r="CR9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CS9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CV9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CW9" t="n">
+        <v>0.1022564438136476</v>
+      </c>
+      <c r="CX9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY9" t="n">
+        <v>-0.1308327872954535</v>
+      </c>
+      <c r="CZ9" t="n">
+        <v>0.008184521352514764</v>
+      </c>
+      <c r="DA9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DB9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DC9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DD9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DE9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DF9" t="n">
+        <v>0.309396649929827</v>
+      </c>
+      <c r="DG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH9" t="n">
+        <v>-0.1054621350059188</v>
+      </c>
+      <c r="DI9" t="n">
+        <v>-0.01552988020853691</v>
+      </c>
+      <c r="DJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DL9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DM9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO9" t="n">
+        <v>-0.003072610678194399</v>
+      </c>
+      <c r="DP9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ9" t="n">
+        <v>0.007354445571896141</v>
+      </c>
+      <c r="DR9" t="n">
+        <v>-0.05514788779030101</v>
+      </c>
+      <c r="DS9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DW9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX9" t="n">
+        <v>0.08790654122059251</v>
+      </c>
+      <c r="DY9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DZ9" t="n">
+        <v>-0.1186515381518493</v>
+      </c>
+      <c r="EA9" t="n">
+        <v>0.05593786692625178</v>
+      </c>
+      <c r="EB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="ED9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EF9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EG9" t="n">
+        <v>0.06626303381215927</v>
+      </c>
+      <c r="EH9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EI9" t="n">
+        <v>0.150736217061881</v>
+      </c>
+      <c r="EJ9" t="n">
+        <v>-0.05463299310092886</v>
+      </c>
+      <c r="EK9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP9" t="n">
+        <v>-0.1080122397101147</v>
+      </c>
+      <c r="EQ9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="ER9" t="n">
+        <v>-0.05716178894233055</v>
+      </c>
+      <c r="ES9" t="n">
+        <v>0.01482405473264862</v>
+      </c>
+      <c r="ET9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EW9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY9" t="n">
+        <v>0.1040170752977869</v>
+      </c>
+      <c r="EZ9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FA9" t="n">
+        <v>-0.1319020110310607</v>
+      </c>
+      <c r="FB9" t="n">
+        <v>0.0268268875263237</v>
+      </c>
+      <c r="FC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FE9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FF9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FG9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FH9" t="n">
+        <v>0.04173785303107523</v>
+      </c>
+      <c r="FI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ9" t="n">
+        <v>-0.03886740128262213</v>
+      </c>
+      <c r="FK9" t="n">
+        <v>0.001758381342018882</v>
+      </c>
+      <c r="FL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FO9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FP9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FQ9" t="n">
+        <v>0.06831995746826294</v>
+      </c>
+      <c r="FR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS9" t="n">
+        <v>-0.06278606320707832</v>
+      </c>
+      <c r="FT9" t="n">
+        <v>-0.02138486330652123</v>
+      </c>
+      <c r="FU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FV9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FW9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FX9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FY9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ9" t="n">
+        <v>-0.04194517743131326</v>
+      </c>
+      <c r="GA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB9" t="n">
+        <v>0.04405072478428362</v>
+      </c>
+      <c r="GC9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="GD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="GG9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="BZ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="CR10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="DS10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="EB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER10" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="ET10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="FU10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FV10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FW10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FY10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG10" t="n">
         <v>0</v>
       </c>
     </row>
